--- a/natmiOut/YoungD2/LR-pairs_lrc2p/App-Cd74.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/App-Cd74.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H2">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I2">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J2">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.07113192384468</v>
+        <v>1.256979</v>
       </c>
       <c r="N2">
-        <v>1.07113192384468</v>
+        <v>3.770937</v>
       </c>
       <c r="O2">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="P2">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="Q2">
-        <v>80.9968125710096</v>
+        <v>119.819028490678</v>
       </c>
       <c r="R2">
-        <v>80.9968125710096</v>
+        <v>1078.371256416102</v>
       </c>
       <c r="S2">
-        <v>3.237873273878591E-05</v>
+        <v>4.027708538400483E-05</v>
       </c>
       <c r="T2">
-        <v>3.237873273878591E-05</v>
+        <v>4.027708538400481E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H3">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I3">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J3">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.323531733210092</v>
+        <v>0.399045</v>
       </c>
       <c r="N3">
-        <v>0.323531733210092</v>
+        <v>1.197135</v>
       </c>
       <c r="O3">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952528E-05</v>
       </c>
       <c r="P3">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952526E-05</v>
       </c>
       <c r="Q3">
-        <v>24.46481014358375</v>
+        <v>38.03817265369</v>
       </c>
       <c r="R3">
-        <v>24.46481014358375</v>
+        <v>342.34355388321</v>
       </c>
       <c r="S3">
-        <v>9.779885454748864E-06</v>
+        <v>1.278650600929706E-05</v>
       </c>
       <c r="T3">
-        <v>9.779885454748864E-06</v>
+        <v>1.278650600929705E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H4">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I4">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J4">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1093.99517069603</v>
+        <v>1562.541941333333</v>
       </c>
       <c r="N4">
-        <v>1093.99517069603</v>
+        <v>4687.625824</v>
       </c>
       <c r="O4">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648098</v>
       </c>
       <c r="P4">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648097</v>
       </c>
       <c r="Q4">
-        <v>82725.68469101567</v>
+        <v>148946.2094326938</v>
       </c>
       <c r="R4">
-        <v>82725.68469101567</v>
+        <v>1340515.884894244</v>
       </c>
       <c r="S4">
-        <v>0.03306985485256216</v>
+        <v>0.05006816755663485</v>
       </c>
       <c r="T4">
-        <v>0.03306985485256216</v>
+        <v>0.05006816755663483</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H5">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I5">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J5">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4620.25580557379</v>
+        <v>4648.383870333333</v>
       </c>
       <c r="N5">
-        <v>4620.25580557379</v>
+        <v>13945.151611</v>
       </c>
       <c r="O5">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866026</v>
       </c>
       <c r="P5">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866025</v>
       </c>
       <c r="Q5">
-        <v>349374.3255928241</v>
+        <v>443097.9669470036</v>
       </c>
       <c r="R5">
-        <v>349374.3255928241</v>
+        <v>3987881.702523033</v>
       </c>
       <c r="S5">
-        <v>0.1396634948350118</v>
+        <v>0.1489470818868465</v>
       </c>
       <c r="T5">
-        <v>0.1396634948350118</v>
+        <v>0.1489470818868465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H6">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I6">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J6">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>292.206356910734</v>
+        <v>296.7239376666666</v>
       </c>
       <c r="N6">
-        <v>292.206356910734</v>
+        <v>890.1718129999999</v>
       </c>
       <c r="O6">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="P6">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="Q6">
-        <v>22096.04904483102</v>
+        <v>28284.62045996671</v>
       </c>
       <c r="R6">
-        <v>22096.04904483102</v>
+        <v>254561.5841397004</v>
       </c>
       <c r="S6">
-        <v>0.008832965692056882</v>
+        <v>0.009507856036479891</v>
       </c>
       <c r="T6">
-        <v>0.008832965692056882</v>
+        <v>0.009507856036479887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H7">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I7">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J7">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.04105909125255</v>
+        <v>1.552768666666666</v>
       </c>
       <c r="N7">
-        <v>1.04105909125255</v>
+        <v>4.658306</v>
       </c>
       <c r="O7">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569206</v>
       </c>
       <c r="P7">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569205</v>
       </c>
       <c r="Q7">
-        <v>78.72276627407811</v>
+        <v>148.0145914217862</v>
       </c>
       <c r="R7">
-        <v>78.72276627407811</v>
+        <v>1332.131322796076</v>
       </c>
       <c r="S7">
-        <v>3.146967551854753E-05</v>
+        <v>4.975500479239561E-05</v>
       </c>
       <c r="T7">
-        <v>3.146967551854753E-05</v>
+        <v>4.97550047923956E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H8">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I8">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J8">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.07113192384468</v>
+        <v>1.256979</v>
       </c>
       <c r="N8">
-        <v>1.07113192384468</v>
+        <v>3.770937</v>
       </c>
       <c r="O8">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="P8">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="Q8">
-        <v>92.86272472911895</v>
+        <v>110.430213235014</v>
       </c>
       <c r="R8">
-        <v>92.86272472911895</v>
+        <v>993.8719191151262</v>
       </c>
       <c r="S8">
-        <v>3.712216876143807E-05</v>
+        <v>3.712104148621571E-05</v>
       </c>
       <c r="T8">
-        <v>3.712216876143807E-05</v>
+        <v>3.712104148621569E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H9">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I9">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J9">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.323531733210092</v>
+        <v>0.399045</v>
       </c>
       <c r="N9">
-        <v>0.323531733210092</v>
+        <v>1.197135</v>
       </c>
       <c r="O9">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952528E-05</v>
       </c>
       <c r="P9">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952526E-05</v>
       </c>
       <c r="Q9">
-        <v>28.04886831715799</v>
+        <v>35.05756614897001</v>
       </c>
       <c r="R9">
-        <v>28.04886831715799</v>
+        <v>315.51809534073</v>
       </c>
       <c r="S9">
-        <v>1.121262407789756E-05</v>
+        <v>1.178457714875662E-05</v>
       </c>
       <c r="T9">
-        <v>1.121262407789756E-05</v>
+        <v>1.178457714875661E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H10">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I10">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J10">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1093.99517069603</v>
+        <v>1562.541941333333</v>
       </c>
       <c r="N10">
-        <v>1093.99517069603</v>
+        <v>4687.625824</v>
       </c>
       <c r="O10">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648098</v>
       </c>
       <c r="P10">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648097</v>
       </c>
       <c r="Q10">
-        <v>94844.87403445391</v>
+        <v>137275.0378248903</v>
       </c>
       <c r="R10">
-        <v>94844.87403445391</v>
+        <v>1235475.340424012</v>
       </c>
       <c r="S10">
-        <v>0.03791453923341862</v>
+        <v>0.04614491111481312</v>
       </c>
       <c r="T10">
-        <v>0.03791453923341862</v>
+        <v>0.04614491111481311</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H11">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I11">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J11">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4620.25580557379</v>
+        <v>4648.383870333333</v>
       </c>
       <c r="N11">
-        <v>4620.25580557379</v>
+        <v>13945.151611</v>
       </c>
       <c r="O11">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866026</v>
       </c>
       <c r="P11">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866025</v>
       </c>
       <c r="Q11">
-        <v>400557.1428691049</v>
+        <v>408377.563984052</v>
       </c>
       <c r="R11">
-        <v>400557.1428691049</v>
+        <v>3675398.075856468</v>
       </c>
       <c r="S11">
-        <v>0.1601239883878157</v>
+        <v>0.1372758419150197</v>
       </c>
       <c r="T11">
-        <v>0.1601239883878157</v>
+        <v>0.1372758419150197</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H12">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I12">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J12">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>292.206356910734</v>
+        <v>296.7239376666666</v>
       </c>
       <c r="N12">
-        <v>292.206356910734</v>
+        <v>890.1718129999999</v>
       </c>
       <c r="O12">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="P12">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="Q12">
-        <v>25333.08725269112</v>
+        <v>26068.28571397216</v>
       </c>
       <c r="R12">
-        <v>25333.08725269112</v>
+        <v>234614.5714257494</v>
       </c>
       <c r="S12">
-        <v>0.01012698198319986</v>
+        <v>0.008762836610697246</v>
       </c>
       <c r="T12">
-        <v>0.01012698198319986</v>
+        <v>0.008762836610697244</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H13">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I13">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J13">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.04105909125255</v>
+        <v>1.552768666666666</v>
       </c>
       <c r="N13">
-        <v>1.04105909125255</v>
+        <v>4.658306</v>
       </c>
       <c r="O13">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569206</v>
       </c>
       <c r="P13">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569205</v>
       </c>
       <c r="Q13">
-        <v>90.2555340435832</v>
+        <v>136.4164198165987</v>
       </c>
       <c r="R13">
-        <v>90.2555340435832</v>
+        <v>1227.747778349388</v>
       </c>
       <c r="S13">
-        <v>3.607993601515555E-05</v>
+        <v>4.585628725207753E-05</v>
       </c>
       <c r="T13">
-        <v>3.607993601515555E-05</v>
+        <v>4.585628725207752E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H14">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I14">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J14">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.07113192384468</v>
+        <v>1.256979</v>
       </c>
       <c r="N14">
-        <v>1.07113192384468</v>
+        <v>3.770937</v>
       </c>
       <c r="O14">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="P14">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="Q14">
-        <v>81.44356353115792</v>
+        <v>111.87799410534</v>
       </c>
       <c r="R14">
-        <v>81.44356353115792</v>
+        <v>1006.90194694806</v>
       </c>
       <c r="S14">
-        <v>3.25573228521531E-05</v>
+        <v>3.760771204652645E-05</v>
       </c>
       <c r="T14">
-        <v>3.25573228521531E-05</v>
+        <v>3.760771204652644E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H15">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I15">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J15">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.323531733210092</v>
+        <v>0.399045</v>
       </c>
       <c r="N15">
-        <v>0.323531733210092</v>
+        <v>1.197135</v>
       </c>
       <c r="O15">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952528E-05</v>
       </c>
       <c r="P15">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952526E-05</v>
       </c>
       <c r="Q15">
-        <v>24.59974974274279</v>
+        <v>35.5171837857</v>
       </c>
       <c r="R15">
-        <v>24.59974974274279</v>
+        <v>319.6546540713</v>
       </c>
       <c r="S15">
-        <v>9.833827987527164E-06</v>
+        <v>1.193907730646745E-05</v>
       </c>
       <c r="T15">
-        <v>9.833827987527164E-06</v>
+        <v>1.193907730646744E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H16">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I16">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J16">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1093.99517069603</v>
+        <v>1562.541941333333</v>
       </c>
       <c r="N16">
-        <v>1093.99517069603</v>
+        <v>4687.625824</v>
       </c>
       <c r="O16">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648098</v>
       </c>
       <c r="P16">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648097</v>
       </c>
       <c r="Q16">
-        <v>83181.97152368871</v>
+        <v>139074.7642576663</v>
       </c>
       <c r="R16">
-        <v>83181.97152368871</v>
+        <v>1251672.878318997</v>
       </c>
       <c r="S16">
-        <v>0.03325225696121791</v>
+        <v>0.04674988793789269</v>
       </c>
       <c r="T16">
-        <v>0.03325225696121791</v>
+        <v>0.04674988793789267</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H17">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I17">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J17">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4620.25580557379</v>
+        <v>4648.383870333333</v>
       </c>
       <c r="N17">
-        <v>4620.25580557379</v>
+        <v>13945.151611</v>
       </c>
       <c r="O17">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866026</v>
       </c>
       <c r="P17">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866025</v>
       </c>
       <c r="Q17">
-        <v>351301.3559345789</v>
+        <v>413731.5446355986</v>
       </c>
       <c r="R17">
-        <v>351301.3559345789</v>
+        <v>3723583.901720387</v>
       </c>
       <c r="S17">
-        <v>0.1404338313264696</v>
+        <v>0.1390755788897143</v>
       </c>
       <c r="T17">
-        <v>0.1404338313264696</v>
+        <v>0.1390755788897142</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H18">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I18">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J18">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>292.206356910734</v>
+        <v>296.7239376666666</v>
       </c>
       <c r="N18">
-        <v>292.206356910734</v>
+        <v>890.1718129999999</v>
       </c>
       <c r="O18">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="P18">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="Q18">
-        <v>22217.92336078152</v>
+        <v>26410.05056503299</v>
       </c>
       <c r="R18">
-        <v>22217.92336078152</v>
+        <v>237690.4550852969</v>
       </c>
       <c r="S18">
-        <v>0.008881685336430837</v>
+        <v>0.0088777206342186</v>
       </c>
       <c r="T18">
-        <v>0.008881685336430837</v>
+        <v>0.008877720634218598</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H19">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I19">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J19">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.04105909125255</v>
+        <v>1.552768666666666</v>
       </c>
       <c r="N19">
-        <v>1.04105909125255</v>
+        <v>4.658306</v>
       </c>
       <c r="O19">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569206</v>
       </c>
       <c r="P19">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569205</v>
       </c>
       <c r="Q19">
-        <v>79.15697436575631</v>
+        <v>138.2048894502533</v>
       </c>
       <c r="R19">
-        <v>79.15697436575631</v>
+        <v>1243.84400505228</v>
       </c>
       <c r="S19">
-        <v>3.164325158045912E-05</v>
+        <v>4.645748010974631E-05</v>
       </c>
       <c r="T19">
-        <v>3.164325158045912E-05</v>
+        <v>4.645748010974629E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H20">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I20">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J20">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.07113192384468</v>
+        <v>1.256979</v>
       </c>
       <c r="N20">
-        <v>1.07113192384468</v>
+        <v>3.770937</v>
       </c>
       <c r="O20">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="P20">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="Q20">
-        <v>72.45311126063291</v>
+        <v>85.61070031174201</v>
       </c>
       <c r="R20">
-        <v>72.45311126063291</v>
+        <v>770.4963028056781</v>
       </c>
       <c r="S20">
-        <v>2.896336104022458E-05</v>
+        <v>2.877797900446797E-05</v>
       </c>
       <c r="T20">
-        <v>2.896336104022458E-05</v>
+        <v>2.877797900446796E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H21">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I21">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J21">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.323531733210092</v>
+        <v>0.399045</v>
       </c>
       <c r="N21">
-        <v>0.323531733210092</v>
+        <v>1.197135</v>
       </c>
       <c r="O21">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952528E-05</v>
       </c>
       <c r="P21">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952526E-05</v>
       </c>
       <c r="Q21">
-        <v>21.88421439114465</v>
+        <v>27.17827577541</v>
       </c>
       <c r="R21">
-        <v>21.88421439114465</v>
+        <v>244.60448197869</v>
       </c>
       <c r="S21">
-        <v>8.748284117328107E-06</v>
+        <v>9.135959019075038E-06</v>
       </c>
       <c r="T21">
-        <v>8.748284117328107E-06</v>
+        <v>9.135959019075034E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H22">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I22">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J22">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1093.99517069603</v>
+        <v>1562.541941333333</v>
       </c>
       <c r="N22">
-        <v>1093.99517069603</v>
+        <v>4687.625824</v>
       </c>
       <c r="O22">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648098</v>
       </c>
       <c r="P22">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648097</v>
       </c>
       <c r="Q22">
-        <v>73999.6185871575</v>
+        <v>106422.0721778292</v>
       </c>
       <c r="R22">
-        <v>73999.6185871575</v>
+        <v>957798.6496004628</v>
       </c>
       <c r="S22">
-        <v>0.02958158224936432</v>
+        <v>0.03577370758086753</v>
       </c>
       <c r="T22">
-        <v>0.02958158224936432</v>
+        <v>0.03577370758086752</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H23">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I23">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J23">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4620.25580557379</v>
+        <v>4648.383870333333</v>
       </c>
       <c r="N23">
-        <v>4620.25580557379</v>
+        <v>13945.151611</v>
       </c>
       <c r="O23">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866026</v>
       </c>
       <c r="P23">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866025</v>
       </c>
       <c r="Q23">
-        <v>312521.6422756566</v>
+        <v>316593.5138590561</v>
       </c>
       <c r="R23">
-        <v>312521.6422756566</v>
+        <v>2849341.624731504</v>
       </c>
       <c r="S23">
-        <v>0.1249315177860685</v>
+        <v>0.1064226955463538</v>
       </c>
       <c r="T23">
-        <v>0.1249315177860685</v>
+        <v>0.1064226955463537</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H24">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I24">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J24">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>292.206356910734</v>
+        <v>296.7239376666666</v>
       </c>
       <c r="N24">
-        <v>292.206356910734</v>
+        <v>890.1718129999999</v>
       </c>
       <c r="O24">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="P24">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="Q24">
-        <v>19765.31481979018</v>
+        <v>20209.36237033476</v>
       </c>
       <c r="R24">
-        <v>19765.31481979018</v>
+        <v>181884.2613330128</v>
       </c>
       <c r="S24">
-        <v>0.007901247292748541</v>
+        <v>0.006793363491589276</v>
       </c>
       <c r="T24">
-        <v>0.007901247292748541</v>
+        <v>0.006793363491589273</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H25">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I25">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J25">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.04105909125255</v>
+        <v>1.552768666666666</v>
       </c>
       <c r="N25">
-        <v>1.04105909125255</v>
+        <v>4.658306</v>
       </c>
       <c r="O25">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569206</v>
       </c>
       <c r="P25">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569205</v>
       </c>
       <c r="Q25">
-        <v>70.4189357896048</v>
+        <v>105.756431074396</v>
       </c>
       <c r="R25">
-        <v>70.4189357896048</v>
+        <v>951.807879669564</v>
       </c>
       <c r="S25">
-        <v>2.815019294348658E-05</v>
+        <v>3.554995277417447E-05</v>
       </c>
       <c r="T25">
-        <v>2.815019294348658E-05</v>
+        <v>3.554995277417446E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H26">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I26">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J26">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.07113192384468</v>
+        <v>1.256979</v>
       </c>
       <c r="N26">
-        <v>1.07113192384468</v>
+        <v>3.770937</v>
       </c>
       <c r="O26">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="P26">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="Q26">
-        <v>76.39519714902947</v>
+        <v>91.185910415251</v>
       </c>
       <c r="R26">
-        <v>76.39519714902947</v>
+        <v>820.673193737259</v>
       </c>
       <c r="S26">
-        <v>3.053922237800044E-05</v>
+        <v>3.06520821098046E-05</v>
       </c>
       <c r="T26">
-        <v>3.053922237800044E-05</v>
+        <v>3.065208210980459E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H27">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I27">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J27">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.323531733210092</v>
+        <v>0.399045</v>
       </c>
       <c r="N27">
-        <v>0.323531733210092</v>
+        <v>1.197135</v>
       </c>
       <c r="O27">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952528E-05</v>
       </c>
       <c r="P27">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952526E-05</v>
       </c>
       <c r="Q27">
-        <v>23.07490794769383</v>
+        <v>28.948201697605</v>
       </c>
       <c r="R27">
-        <v>23.07490794769383</v>
+        <v>260.533815278445</v>
       </c>
       <c r="S27">
-        <v>9.224267643315637E-06</v>
+        <v>9.730918420679247E-06</v>
       </c>
       <c r="T27">
-        <v>9.224267643315637E-06</v>
+        <v>9.730918420679241E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H28">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I28">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J28">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1093.99517069603</v>
+        <v>1562.541941333333</v>
       </c>
       <c r="N28">
-        <v>1093.99517069603</v>
+        <v>4687.625824</v>
       </c>
       <c r="O28">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648098</v>
       </c>
       <c r="P28">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648097</v>
       </c>
       <c r="Q28">
-        <v>78025.84806307047</v>
+        <v>113352.5774754341</v>
       </c>
       <c r="R28">
-        <v>78025.84806307047</v>
+        <v>1020173.197278907</v>
       </c>
       <c r="S28">
-        <v>0.03119108025314463</v>
+        <v>0.0381033922490056</v>
       </c>
       <c r="T28">
-        <v>0.03119108025314463</v>
+        <v>0.03810339224900559</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H29">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I29">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J29">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4620.25580557379</v>
+        <v>4648.383870333333</v>
       </c>
       <c r="N29">
-        <v>4620.25580557379</v>
+        <v>13945.151611</v>
       </c>
       <c r="O29">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866026</v>
       </c>
       <c r="P29">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866025</v>
       </c>
       <c r="Q29">
-        <v>329525.5657014099</v>
+        <v>337210.9758205292</v>
       </c>
       <c r="R29">
-        <v>329525.5657014099</v>
+        <v>3034898.782384763</v>
       </c>
       <c r="S29">
-        <v>0.1317288901102024</v>
+        <v>0.113353241439474</v>
       </c>
       <c r="T29">
-        <v>0.1317288901102024</v>
+        <v>0.113353241439474</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H30">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I30">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J30">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>292.206356910734</v>
+        <v>296.7239376666666</v>
       </c>
       <c r="N30">
-        <v>292.206356910734</v>
+        <v>890.1718129999999</v>
       </c>
       <c r="O30">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="P30">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="Q30">
-        <v>20840.72162116996</v>
+        <v>21525.45300926522</v>
       </c>
       <c r="R30">
-        <v>20840.72162116996</v>
+        <v>193729.077083387</v>
       </c>
       <c r="S30">
-        <v>0.008331144572679422</v>
+        <v>0.007235766469688999</v>
       </c>
       <c r="T30">
-        <v>0.008331144572679422</v>
+        <v>0.007235766469688996</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H31">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I31">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J31">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.04105909125255</v>
+        <v>1.552768666666666</v>
       </c>
       <c r="N31">
-        <v>1.04105909125255</v>
+        <v>4.658306</v>
       </c>
       <c r="O31">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569206</v>
       </c>
       <c r="P31">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569205</v>
       </c>
       <c r="Q31">
-        <v>74.25034465834909</v>
+        <v>112.6435879471935</v>
       </c>
       <c r="R31">
-        <v>74.25034465834909</v>
+        <v>1013.792291524742</v>
       </c>
       <c r="S31">
-        <v>2.968181079160037E-05</v>
+        <v>3.786506589863353E-05</v>
       </c>
       <c r="T31">
-        <v>2.968181079160037E-05</v>
+        <v>3.786506589863351E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H32">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I32">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J32">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.07113192384468</v>
+        <v>1.256979</v>
       </c>
       <c r="N32">
-        <v>1.07113192384468</v>
+        <v>3.770937</v>
       </c>
       <c r="O32">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="P32">
-        <v>0.0001782577779093296</v>
+        <v>0.0001930588710984162</v>
       </c>
       <c r="Q32">
-        <v>41.76819926031994</v>
+        <v>55.400888113707</v>
       </c>
       <c r="R32">
-        <v>41.76819926031994</v>
+        <v>498.607993023363</v>
       </c>
       <c r="S32">
-        <v>1.669697013872749E-05</v>
+        <v>1.862297106739668E-05</v>
       </c>
       <c r="T32">
-        <v>1.669697013872749E-05</v>
+        <v>1.862297106739667E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H33">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I33">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J33">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.323531733210092</v>
+        <v>0.399045</v>
       </c>
       <c r="N33">
-        <v>0.323531733210092</v>
+        <v>1.197135</v>
       </c>
       <c r="O33">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952528E-05</v>
       </c>
       <c r="P33">
-        <v>5.38421519901855E-05</v>
+        <v>6.128915217952526E-05</v>
       </c>
       <c r="Q33">
-        <v>12.61594169581981</v>
+        <v>17.587761925485</v>
       </c>
       <c r="R33">
-        <v>12.61594169581981</v>
+        <v>158.289857329365</v>
       </c>
       <c r="S33">
-        <v>5.043262709368164E-06</v>
+        <v>5.912114275249871E-06</v>
       </c>
       <c r="T33">
-        <v>5.043262709368164E-06</v>
+        <v>5.912114275249869E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H34">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I34">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J34">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1093.99517069603</v>
+        <v>1562.541941333333</v>
       </c>
       <c r="N34">
-        <v>1093.99517069603</v>
+        <v>4687.625824</v>
       </c>
       <c r="O34">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648098</v>
       </c>
       <c r="P34">
-        <v>0.1820626795174206</v>
+        <v>0.2399901535648097</v>
       </c>
       <c r="Q34">
-        <v>42659.73897542561</v>
+        <v>68868.46261137418</v>
       </c>
       <c r="R34">
-        <v>42659.73897542561</v>
+        <v>619816.1635023677</v>
       </c>
       <c r="S34">
-        <v>0.01705336596771289</v>
+        <v>0.02315008712559597</v>
       </c>
       <c r="T34">
-        <v>0.01705336596771289</v>
+        <v>0.02315008712559596</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H35">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I35">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J35">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4620.25580557379</v>
+        <v>4648.383870333333</v>
       </c>
       <c r="N35">
-        <v>4620.25580557379</v>
+        <v>13945.151611</v>
       </c>
       <c r="O35">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866026</v>
       </c>
       <c r="P35">
-        <v>0.7689029847211328</v>
+        <v>0.7139433056866025</v>
       </c>
       <c r="Q35">
-        <v>180164.329738378</v>
+        <v>204875.8131280612</v>
       </c>
       <c r="R35">
-        <v>180164.329738378</v>
+        <v>1843882.318152551</v>
       </c>
       <c r="S35">
-        <v>0.0720212622755647</v>
+        <v>0.06886886600919431</v>
       </c>
       <c r="T35">
-        <v>0.0720212622755647</v>
+        <v>0.06886886600919429</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H36">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I36">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J36">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>292.206356910734</v>
+        <v>296.7239376666666</v>
       </c>
       <c r="N36">
-        <v>292.206356910734</v>
+        <v>890.1718129999999</v>
       </c>
       <c r="O36">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="P36">
-        <v>0.04862898277452608</v>
+        <v>0.04557370364485284</v>
       </c>
       <c r="Q36">
-        <v>11394.42590486126</v>
+        <v>13077.99865497321</v>
       </c>
       <c r="R36">
-        <v>11394.42590486126</v>
+        <v>117701.9878947589</v>
       </c>
       <c r="S36">
-        <v>0.004554957897410542</v>
+        <v>0.004396160402178834</v>
       </c>
       <c r="T36">
-        <v>0.004554957897410542</v>
+        <v>0.004396160402178832</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H37">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I37">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J37">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.04105909125255</v>
+        <v>1.552768666666666</v>
       </c>
       <c r="N37">
-        <v>1.04105909125255</v>
+        <v>4.658306</v>
       </c>
       <c r="O37">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569206</v>
       </c>
       <c r="P37">
-        <v>0.0001732530570211025</v>
+        <v>0.0002384890804569205</v>
       </c>
       <c r="Q37">
-        <v>40.59552572117101</v>
+        <v>68.43770911723266</v>
       </c>
       <c r="R37">
-        <v>40.59552572117101</v>
+        <v>615.9393820550939</v>
       </c>
       <c r="S37">
-        <v>1.622819017185335E-05</v>
+        <v>2.300528962989314E-05</v>
       </c>
       <c r="T37">
-        <v>1.622819017185335E-05</v>
+        <v>2.300528962989313E-05</v>
       </c>
     </row>
   </sheetData>
